--- a/data_directory.xlsx
+++ b/data_directory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -63,6 +63,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>主键</t>
     </r>
@@ -71,6 +72,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -88,45 +90,309 @@
     <t>用户头像链接</t>
   </si>
   <si>
+    <t>用户性别0-女 1-男</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t>用户性别</t>
+        <charset val="1"/>
+      </rPr>
+      <t>登陆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>session_key</t>
+    </r>
+  </si>
+  <si>
+    <t>session_key过期时间</t>
+  </si>
+  <si>
+    <t>添加时间</t>
+  </si>
+  <si>
+    <t>上次登陆时间</t>
+  </si>
+  <si>
+    <t>是否启用 1-是 0-否</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>pinyin</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>parentid</t>
+  </si>
+  <si>
+    <t>地名</t>
+  </si>
+  <si>
+    <t>地名拼音</t>
+  </si>
+  <si>
+    <t>地名编码</t>
+  </si>
+  <si>
+    <t>地名全称</t>
+  </si>
+  <si>
+    <t>类别 0-国家，1-直辖市，2-省，3-市</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>父</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>meta_keywords</t>
+  </si>
+  <si>
+    <t>meta_desc</t>
+  </si>
+  <si>
+    <t>contant</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>is_top</t>
+  </si>
+  <si>
+    <t>is_hot</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>edit_time</t>
+  </si>
+  <si>
+    <t>editor</t>
+  </si>
+  <si>
+    <t>新闻标题</t>
+  </si>
+  <si>
+    <t>meta关键字</t>
+  </si>
+  <si>
+    <t>meta描述</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>印象图片</t>
+  </si>
+  <si>
+    <t>是否置顶，0-否 1-是</t>
+  </si>
+  <si>
+    <t>是否热门，0-否 1-是</t>
+  </si>
+  <si>
+    <t>点击数</t>
+  </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>编辑时间</t>
+  </si>
+  <si>
+    <t>是否启用，0-否 1-是</t>
+  </si>
+  <si>
+    <t>编辑人</t>
+  </si>
+  <si>
+    <t>sub_title</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>nights</t>
+  </si>
+  <si>
+    <t>original_price</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>advance_day</t>
+  </si>
+  <si>
+    <t>start_days</t>
+  </si>
+  <si>
+    <t>travel_time</t>
+  </si>
+  <si>
+    <t>city_id</t>
+  </si>
+  <si>
+    <t>scenic_id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>price_contain</t>
+  </si>
+  <si>
+    <t>price_not_contain</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>is_recommend</t>
+  </si>
+  <si>
+    <t>线路标题</t>
+  </si>
+  <si>
+    <t>线路副标题</t>
+  </si>
+  <si>
+    <t>线路持续日数</t>
+  </si>
+  <si>
+    <t>线路持续夜数</t>
+  </si>
+  <si>
+    <t>原价</t>
+  </si>
+  <si>
+    <t>定价</t>
+  </si>
+  <si>
+    <t>提前预定天数</t>
+  </si>
+  <si>
+    <t>出游时间（用星期表示）</t>
+  </si>
+  <si>
+    <t>指定出游时间</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>线路包含的城市</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-      </rPr>
-      <t>0-</t>
+        <charset val="1"/>
+      </rPr>
+      <t>ID</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t>女 </t>
+        <charset val="1"/>
+      </rPr>
+      <t>，多个</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-      </rPr>
-      <t>1-</t>
+        <charset val="1"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>用</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-      </rPr>
-      <t>男</t>
+        <charset val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>隔开</t>
     </r>
   </si>
   <si>
@@ -135,451 +401,94 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t>登陆</t>
+        <charset val="1"/>
+      </rPr>
+      <t>线路包含的景点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ID</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t>session_key</t>
-    </r>
-  </si>
-  <si>
+        <charset val="1"/>
+      </rPr>
+      <t>，多个</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-      </rPr>
-      <t>session_key</t>
+        <charset val="1"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>用</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-      </rPr>
-      <t>过期时间</t>
-    </r>
-  </si>
-  <si>
-    <t>添加时间</t>
-  </si>
-  <si>
-    <t>上次登陆时间</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>是否启用 </t>
+        <charset val="1"/>
+      </rPr>
+      <t>,</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-      </rPr>
-      <t>1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>是 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>0-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>否</t>
-    </r>
-  </si>
-  <si>
-    <t>`</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>pinyin</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>fullname</t>
-  </si>
-  <si>
-    <t>rank</t>
-  </si>
-  <si>
-    <t>parentid</t>
-  </si>
-  <si>
-    <t>地名</t>
-  </si>
-  <si>
-    <t>地名拼音</t>
-  </si>
-  <si>
-    <t>地名编码</t>
-  </si>
-  <si>
-    <t>地名全称</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>类别 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>0-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>国家，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>直辖市，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>省，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>市</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>父</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>meta_keywords</t>
-  </si>
-  <si>
-    <t>meta_desc</t>
-  </si>
-  <si>
-    <t>contant</t>
-  </si>
-  <si>
-    <t>pic</t>
-  </si>
-  <si>
-    <t>is_top</t>
-  </si>
-  <si>
-    <t>is_hot</t>
-  </si>
-  <si>
-    <t>hits</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>edit_time</t>
-  </si>
-  <si>
-    <t>editor</t>
-  </si>
-  <si>
-    <t>新闻标题</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>meta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>关键字</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>meta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>描述</t>
-    </r>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>印象图片</t>
-  </si>
-  <si>
-    <t>是否置顶</t>
-  </si>
-  <si>
-    <t>是否热门</t>
-  </si>
-  <si>
-    <t>点击数</t>
-  </si>
-  <si>
-    <t>作者</t>
-  </si>
-  <si>
-    <t>编辑时间</t>
+        <charset val="1"/>
+      </rPr>
+      <t>隔开</t>
+    </r>
+  </si>
+  <si>
+    <t>线路类型</t>
+  </si>
+  <si>
+    <t>点击量</t>
+  </si>
+  <si>
+    <t>线路印象图</t>
+  </si>
+  <si>
+    <t>线路内容</t>
+  </si>
+  <si>
+    <t>线路特色</t>
+  </si>
+  <si>
+    <t>线路价格包含内容</t>
+  </si>
+  <si>
+    <t>线路价格不包含内容</t>
+  </si>
+  <si>
+    <t>注意事项</t>
+  </si>
+  <si>
+    <t>是否推荐</t>
   </si>
   <si>
     <t>是否启用</t>
-  </si>
-  <si>
-    <t>编辑人</t>
-  </si>
-  <si>
-    <t>sub_title</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>nights</t>
-  </si>
-  <si>
-    <t>original_price</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>advance_day</t>
-  </si>
-  <si>
-    <t>start_days</t>
-  </si>
-  <si>
-    <t>travel_time</t>
-  </si>
-  <si>
-    <t>city_id</t>
-  </si>
-  <si>
-    <t>scenic_id</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>feature</t>
-  </si>
-  <si>
-    <t>price_contain</t>
-  </si>
-  <si>
-    <t>price_not_contain</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>is_recommend</t>
-  </si>
-  <si>
-    <t>线路标题</t>
-  </si>
-  <si>
-    <t>线路副标题</t>
-  </si>
-  <si>
-    <t>线路持续日数</t>
-  </si>
-  <si>
-    <t>线路持续夜数</t>
-  </si>
-  <si>
-    <t>原价</t>
-  </si>
-  <si>
-    <t>定价</t>
-  </si>
-  <si>
-    <t>提前预定天数</t>
-  </si>
-  <si>
-    <t>出游时间（用星期表示）</t>
-  </si>
-  <si>
-    <t>指定出游时间</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>线路包含的城市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>线路包含的景点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-  </si>
-  <si>
-    <t>线路类型</t>
-  </si>
-  <si>
-    <t>点击量</t>
-  </si>
-  <si>
-    <t>线路印象图</t>
-  </si>
-  <si>
-    <t>线路内容</t>
-  </si>
-  <si>
-    <t>线路特色</t>
-  </si>
-  <si>
-    <t>线路价格包含内容</t>
-  </si>
-  <si>
-    <t>线路价格不包含内容</t>
-  </si>
-  <si>
-    <t>注意事项</t>
-  </si>
-  <si>
-    <t>是否推荐</t>
   </si>
 </sst>
 </file>
@@ -594,6 +503,7 @@
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -614,6 +524,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -658,12 +569,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -687,19 +602,19 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="1" sqref="E14:E15 H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.15463917525773"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="11.639175257732"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.0463917525773"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5773195876289"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.1288659793814"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="11.639175257732"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.5773195876289"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.639175257732"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.09278350515464"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="11.4587628865979"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9587628865979"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5463917525773"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.0927835051546"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="11.4587628865979"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.5463917525773"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.4587628865979"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,7 +674,7 @@
       <c r="G2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="0" t="s">
@@ -796,14 +711,14 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="E14:E15 G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.639175257732"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.0773195876289"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.639175257732"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.4587628865979"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.0051546391753"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.4587628865979"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,7 +770,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>
@@ -870,15 +785,20 @@
   </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.639175257732"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3556701030928"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.639175257732"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.4587628865979"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.1855670103093"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="11.4587628865979"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.6649484536082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.8659793814433"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="11.4587628865979"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.8659793814433"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.4587628865979"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -932,10 +852,10 @@
       <c r="B2" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -972,7 +892,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>
@@ -987,25 +907,25 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T3" activeCellId="0" sqref="T3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z2" activeCellId="1" sqref="E14:E15 Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="11.639175257732"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.5360824742268"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.659793814433"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.5360824742268"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.1855670103093"/>
-    <col collapsed="false" hidden="false" max="17" min="13" style="0" width="11.639175257732"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.1855670103093"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.0103092783505"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.639175257732"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.3556701030928"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.639175257732"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="13.520618556701"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="11.639175257732"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="11.4587628865979"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.5463917525773"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.6855670103093"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.5463917525773"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="29.520618556701"/>
+    <col collapsed="false" hidden="false" max="17" min="13" style="0" width="11.4587628865979"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.0927835051546"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.8659793814433"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.4587628865979"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.1855670103093"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.4587628865979"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="11.4587628865979"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,10 +1039,10 @@
       <c r="J2" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="2" t="s">
         <v>86</v>
       </c>
       <c r="M2" s="0" t="s">
@@ -1149,17 +1069,17 @@
       <c r="T2" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="W2" s="0" t="s">
         <v>95</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="Y2" s="0" t="s">
         <v>19</v>
@@ -1171,7 +1091,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>
